--- a/biology/Médecine/Charles_Scriver/Charles_Scriver.xlsx
+++ b/biology/Médecine/Charles_Scriver/Charles_Scriver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Scriver, né à Montréal le 7 novembre 1930 et mort le 7 avril 2023 dans la même ville[2], est un médecin, pédiatre et chercheur québécois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Scriver, né à Montréal le 7 novembre 1930 et mort le 7 avril 2023 dans la même ville, est un médecin, pédiatre et chercheur québécois.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Scriver a contribué de façon exceptionnelle au développement de la génétique humaine[réf. souhaitée]. Il est considéré comme le père de la génétique moderne au Québec. Il a écrit plus de 500 articles scientifiques portant sur la biochimie, la génétique moléculaire, la génétique des populations, l'épidémiologie et la nutrition. Le Dr Scriver a notamment été l'éditeur principal de The Metabolic and Molecular Bases of Inherited Diseases[3] un ouvrage qui traite des maladies métaboliques et génétiques. En 1961, il a fondé le Laboratoire De Belle de génétique biochimique de l’Hôpital pour enfants de Montréal. Grâce à ses recherches, Il a démontré qu'une carence en vitamine D pouvait causer des malformations osseuses[réf. nécessaire] [4]symptôme du rachitisme.
-Il participe au lancement du projet Fichier BALSAC en génétique des populations[5].
-Il a participé à l'élaboration du programme de nutrition préventive et a également fait pression auprès du gouvernement pour que les producteurs laitier soient obligés d'ajouter des vitamines D dans le lait. Dr Scriver a ainsi amélioré la vie de nombreux enfants québécois qui souffraient de rachitisme[réf. souhaitée][6]. Grâce à ses découvertes le Dr Scriver a reçu plusieurs reconnaissances et distinctions[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Scriver a contribué de façon exceptionnelle au développement de la génétique humaine[réf. souhaitée]. Il est considéré comme le père de la génétique moderne au Québec. Il a écrit plus de 500 articles scientifiques portant sur la biochimie, la génétique moléculaire, la génétique des populations, l'épidémiologie et la nutrition. Le Dr Scriver a notamment été l'éditeur principal de The Metabolic and Molecular Bases of Inherited Diseases un ouvrage qui traite des maladies métaboliques et génétiques. En 1961, il a fondé le Laboratoire De Belle de génétique biochimique de l’Hôpital pour enfants de Montréal. Grâce à ses recherches, Il a démontré qu'une carence en vitamine D pouvait causer des malformations osseuses[réf. nécessaire] symptôme du rachitisme.
+Il participe au lancement du projet Fichier BALSAC en génétique des populations.
+Il a participé à l'élaboration du programme de nutrition préventive et a également fait pression auprès du gouvernement pour que les producteurs laitier soient obligés d'ajouter des vitamines D dans le lait. Dr Scriver a ainsi amélioré la vie de nombreux enfants québécois qui souffraient de rachitisme[réf. souhaitée]. Grâce à ses découvertes le Dr Scriver a reçu plusieurs reconnaissances et distinctions.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Distinctions et honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1962 - Médaille du Collège royal
 1979 - Prix Gairdner de Toronto
